--- a/bin/Debug/netcoreapp3.1/FundMarketSummary.xlsx
+++ b/bin/Debug/netcoreapp3.1/FundMarketSummary.xlsx
@@ -59,14 +59,14 @@
     <t>25,045</t>
   </si>
   <si>
-    <t xml:space="preserve">20.45
-</t>
-  </si>
-  <si>
-    <t>11,370</t>
-  </si>
-  <si>
-    <t>(13,675)</t>
+    <t xml:space="preserve">20.57
+</t>
+  </si>
+  <si>
+    <t>11,437</t>
+  </si>
+  <si>
+    <t>(13,608)</t>
   </si>
   <si>
     <t>At Tahur Limited</t>
@@ -84,14 +84,14 @@
     <t>7,820,772</t>
   </si>
   <si>
-    <t xml:space="preserve">20.90
-</t>
-  </si>
-  <si>
-    <t>9,321,400</t>
-  </si>
-  <si>
-    <t>1,500,628</t>
+    <t xml:space="preserve">21.03
+</t>
+  </si>
+  <si>
+    <t>9,379,380</t>
+  </si>
+  <si>
+    <t>1,558,608</t>
   </si>
   <si>
     <t>Attock Cement Pakistan Limited</t>
@@ -109,14 +109,14 @@
     <t>19,845,476</t>
   </si>
   <si>
-    <t xml:space="preserve">162.50
-</t>
-  </si>
-  <si>
-    <t>25,350,000</t>
-  </si>
-  <si>
-    <t>5,504,524</t>
+    <t xml:space="preserve">167.42
+</t>
+  </si>
+  <si>
+    <t>26,117,520</t>
+  </si>
+  <si>
+    <t>6,272,044</t>
   </si>
   <si>
     <t>Bankislami Pakistan Ltd.</t>
@@ -134,14 +134,14 @@
     <t>26,252</t>
   </si>
   <si>
-    <t xml:space="preserve">10.62
-</t>
-  </si>
-  <si>
-    <t>21,240</t>
-  </si>
-  <si>
-    <t>(5,012)</t>
+    <t xml:space="preserve">10.66
+</t>
+  </si>
+  <si>
+    <t>21,320</t>
+  </si>
+  <si>
+    <t>(4,932)</t>
   </si>
   <si>
     <t>Century Paper &amp; Board Mills</t>
@@ -159,14 +159,14 @@
     <t>20,300,902</t>
   </si>
   <si>
-    <t xml:space="preserve">113.15
-</t>
-  </si>
-  <si>
-    <t>32,247,750</t>
-  </si>
-  <si>
-    <t>11,946,848</t>
+    <t xml:space="preserve">115.07
+</t>
+  </si>
+  <si>
+    <t>32,794,950</t>
+  </si>
+  <si>
+    <t>12,494,048</t>
   </si>
   <si>
     <t>Cherat Cement Company Limited</t>
@@ -184,14 +184,14 @@
     <t>33,046,320</t>
   </si>
   <si>
-    <t xml:space="preserve">131.39
-</t>
-  </si>
-  <si>
-    <t>45,395,245</t>
-  </si>
-  <si>
-    <t>12,348,925</t>
+    <t xml:space="preserve">130.24
+</t>
+  </si>
+  <si>
+    <t>44,997,920</t>
+  </si>
+  <si>
+    <t>11,951,600</t>
   </si>
   <si>
     <t>D. G. Khan Cement</t>
@@ -209,14 +209,14 @@
     <t>62,057,378</t>
   </si>
   <si>
-    <t xml:space="preserve">112.80
-</t>
-  </si>
-  <si>
-    <t>81,795,792</t>
-  </si>
-  <si>
-    <t>19,738,414</t>
+    <t xml:space="preserve">112.83
+</t>
+  </si>
+  <si>
+    <t>81,817,546</t>
+  </si>
+  <si>
+    <t>19,760,169</t>
   </si>
   <si>
     <t>Dawood Hercules Corporation Limited</t>
@@ -234,14 +234,14 @@
     <t>582,193</t>
   </si>
   <si>
-    <t xml:space="preserve">129.00
-</t>
-  </si>
-  <si>
-    <t>475,236</t>
-  </si>
-  <si>
-    <t>(106,957)</t>
+    <t xml:space="preserve">129.14
+</t>
+  </si>
+  <si>
+    <t>475,752</t>
+  </si>
+  <si>
+    <t>(106,442)</t>
   </si>
   <si>
     <t>Engro Corporation</t>
@@ -259,14 +259,14 @@
     <t>233,362,180</t>
   </si>
   <si>
-    <t xml:space="preserve">302.49
-</t>
-  </si>
-  <si>
-    <t>232,221,271</t>
-  </si>
-  <si>
-    <t>(1,140,909)</t>
+    <t xml:space="preserve">304.75
+</t>
+  </si>
+  <si>
+    <t>233,956,270</t>
+  </si>
+  <si>
+    <t>594,090</t>
   </si>
   <si>
     <t>Engro Fertilizer Limited</t>
@@ -284,14 +284,14 @@
     <t>101,589,373</t>
   </si>
   <si>
-    <t xml:space="preserve">61.48
-</t>
-  </si>
-  <si>
-    <t>94,488,182</t>
-  </si>
-  <si>
-    <t>(7,101,191)</t>
+    <t xml:space="preserve">61.74
+</t>
+  </si>
+  <si>
+    <t>94,887,774</t>
+  </si>
+  <si>
+    <t>(6,701,599)</t>
   </si>
   <si>
     <t>Engro Polymer &amp; Chemicals Limited</t>
@@ -309,14 +309,14 @@
     <t>32,595,635</t>
   </si>
   <si>
-    <t xml:space="preserve">44.90
-</t>
-  </si>
-  <si>
-    <t>48,716,500</t>
-  </si>
-  <si>
-    <t>16,120,865</t>
+    <t xml:space="preserve">44.93
+</t>
+  </si>
+  <si>
+    <t>48,749,050</t>
+  </si>
+  <si>
+    <t>16,153,415</t>
   </si>
   <si>
     <t>Fauji Cement</t>
@@ -334,14 +334,14 @@
     <t>2,734,246</t>
   </si>
   <si>
-    <t xml:space="preserve">21.19
-</t>
-  </si>
-  <si>
-    <t>3,146,715</t>
-  </si>
-  <si>
-    <t>412,469</t>
+    <t xml:space="preserve">21.13
+</t>
+  </si>
+  <si>
+    <t>3,137,805</t>
+  </si>
+  <si>
+    <t>403,559</t>
   </si>
   <si>
     <t>Fauji Fertilizer Company</t>
@@ -359,14 +359,14 @@
     <t>1,627,783</t>
   </si>
   <si>
-    <t xml:space="preserve">109.80
-</t>
-  </si>
-  <si>
-    <t>1,899,540</t>
-  </si>
-  <si>
-    <t>271,757</t>
+    <t xml:space="preserve">109.99
+</t>
+  </si>
+  <si>
+    <t>1,902,827</t>
+  </si>
+  <si>
+    <t>275,044</t>
   </si>
   <si>
     <t>Ferozsons Laboratory Limited</t>
@@ -409,14 +409,14 @@
     <t>1,170,570</t>
   </si>
   <si>
-    <t xml:space="preserve">185.90
-</t>
-  </si>
-  <si>
-    <t>1,338,480</t>
-  </si>
-  <si>
-    <t>167,910</t>
+    <t xml:space="preserve">185.89
+</t>
+  </si>
+  <si>
+    <t>1,338,408</t>
+  </si>
+  <si>
+    <t>167,838</t>
   </si>
   <si>
     <t>Hascol Petroleum</t>
@@ -434,14 +434,14 @@
     <t>26,127,844</t>
   </si>
   <si>
-    <t xml:space="preserve">21.09
-</t>
-  </si>
-  <si>
-    <t>38,768,482</t>
-  </si>
-  <si>
-    <t>12,640,637</t>
+    <t xml:space="preserve">21.08
+</t>
+  </si>
+  <si>
+    <t>38,750,099</t>
+  </si>
+  <si>
+    <t>12,622,255</t>
   </si>
   <si>
     <t>Highnoon (Lab)</t>
@@ -459,7 +459,7 @@
     <t>47,798,829</t>
   </si>
   <si>
-    <t xml:space="preserve">628.00
+    <t xml:space="preserve">628
 </t>
   </si>
   <si>
@@ -484,14 +484,14 @@
     <t>9,385,593</t>
   </si>
   <si>
-    <t xml:space="preserve">303.00
-</t>
-  </si>
-  <si>
-    <t>13,847,100</t>
-  </si>
-  <si>
-    <t>4,461,507</t>
+    <t xml:space="preserve">304.89
+</t>
+  </si>
+  <si>
+    <t>13,933,473</t>
+  </si>
+  <si>
+    <t>4,547,880</t>
   </si>
   <si>
     <t>Hub Power Company</t>
@@ -509,14 +509,14 @@
     <t>131,231,845</t>
   </si>
   <si>
-    <t xml:space="preserve">80.70
-</t>
-  </si>
-  <si>
-    <t>118,120,186</t>
-  </si>
-  <si>
-    <t>(13,111,658)</t>
+    <t xml:space="preserve">81.26
+</t>
+  </si>
+  <si>
+    <t>118,939,856</t>
+  </si>
+  <si>
+    <t>(12,291,989)</t>
   </si>
   <si>
     <t>ICI Pakistan Limited</t>
@@ -583,14 +583,14 @@
     <t>10,984,402</t>
   </si>
   <si>
-    <t xml:space="preserve">154.00
-</t>
-  </si>
-  <si>
-    <t>17,093,384</t>
-  </si>
-  <si>
-    <t>6,108,982</t>
+    <t xml:space="preserve">154.50
+</t>
+  </si>
+  <si>
+    <t>17,148,882</t>
+  </si>
+  <si>
+    <t>6,164,480</t>
   </si>
   <si>
     <t>International Steels Limited</t>
@@ -608,14 +608,14 @@
     <t>14,145,453</t>
   </si>
   <si>
-    <t xml:space="preserve">79.55
-</t>
-  </si>
-  <si>
-    <t>22,228,577</t>
-  </si>
-  <si>
-    <t>8,083,123</t>
+    <t xml:space="preserve">79.63
+</t>
+  </si>
+  <si>
+    <t>22,250,931</t>
+  </si>
+  <si>
+    <t>8,105,478</t>
   </si>
   <si>
     <t>Ittehad Chemicals Ltd</t>
@@ -633,14 +633,14 @@
     <t>12,131,403</t>
   </si>
   <si>
-    <t xml:space="preserve">29.00
-</t>
-  </si>
-  <si>
-    <t>14,152,000</t>
-  </si>
-  <si>
-    <t>2,020,597</t>
+    <t xml:space="preserve">29.14
+</t>
+  </si>
+  <si>
+    <t>14,220,320</t>
+  </si>
+  <si>
+    <t>2,088,917</t>
   </si>
   <si>
     <t>K-Electric Limited</t>
@@ -683,7 +683,7 @@
     <t>12,451,110</t>
   </si>
   <si>
-    <t xml:space="preserve">200.00
+    <t xml:space="preserve">200
 </t>
   </si>
   <si>
@@ -708,14 +708,14 @@
     <t>41,911,613</t>
   </si>
   <si>
-    <t xml:space="preserve">61.00
-</t>
-  </si>
-  <si>
-    <t>63,028,311</t>
-  </si>
-  <si>
-    <t>21,116,698</t>
+    <t xml:space="preserve">60.54
+</t>
+  </si>
+  <si>
+    <t>62,553,016</t>
+  </si>
+  <si>
+    <t>20,641,403</t>
   </si>
   <si>
     <t xml:space="preserve">Lotte Chemical Pakistan Ltd </t>
@@ -733,14 +733,14 @@
     <t>21,126,686</t>
   </si>
   <si>
-    <t xml:space="preserve">12.52
-</t>
-  </si>
-  <si>
-    <t>24,270,020</t>
-  </si>
-  <si>
-    <t>3,143,334</t>
+    <t xml:space="preserve">12.69
+</t>
+  </si>
+  <si>
+    <t>24,599,565</t>
+  </si>
+  <si>
+    <t>3,472,879</t>
   </si>
   <si>
     <t>Lucky Cement</t>
@@ -758,14 +758,14 @@
     <t>159,240,184</t>
   </si>
   <si>
-    <t xml:space="preserve">661.00
-</t>
-  </si>
-  <si>
-    <t>237,938,848</t>
-  </si>
-  <si>
-    <t>78,698,664</t>
+    <t xml:space="preserve">662.86
+</t>
+  </si>
+  <si>
+    <t>238,608,388</t>
+  </si>
+  <si>
+    <t>79,368,205</t>
   </si>
   <si>
     <t>Maple Leaf Cement Factory Limited</t>
@@ -783,14 +783,14 @@
     <t>44,922,183</t>
   </si>
   <si>
-    <t xml:space="preserve">39.80
-</t>
-  </si>
-  <si>
-    <t>66,392,768</t>
-  </si>
-  <si>
-    <t>21,470,585</t>
+    <t xml:space="preserve">39.70
+</t>
+  </si>
+  <si>
+    <t>66,225,952</t>
+  </si>
+  <si>
+    <t>21,303,769</t>
   </si>
   <si>
     <t>Mari Petroleum Co. Ltd</t>
@@ -826,14 +826,14 @@
     <t>93,959,562</t>
   </si>
   <si>
-    <t xml:space="preserve">80.88
-</t>
-  </si>
-  <si>
-    <t>101,783,840</t>
-  </si>
-  <si>
-    <t>7,824,279</t>
+    <t xml:space="preserve">80.23
+</t>
+  </si>
+  <si>
+    <t>100,965,845</t>
+  </si>
+  <si>
+    <t>7,006,283</t>
   </si>
   <si>
     <t>Millat Tractors</t>
@@ -851,14 +851,14 @@
     <t>45,447,667</t>
   </si>
   <si>
-    <t xml:space="preserve">878.00
-</t>
-  </si>
-  <si>
-    <t>45,639,318</t>
-  </si>
-  <si>
-    <t>191,651</t>
+    <t xml:space="preserve">879.55
+</t>
+  </si>
+  <si>
+    <t>45,719,889</t>
+  </si>
+  <si>
+    <t>272,221</t>
   </si>
   <si>
     <t>Mughal Iron &amp; Steel Industries</t>
@@ -876,14 +876,14 @@
     <t>20,634,240</t>
   </si>
   <si>
-    <t xml:space="preserve">68.25
-</t>
-  </si>
-  <si>
-    <t>29,518,125</t>
-  </si>
-  <si>
-    <t>8,883,885</t>
+    <t xml:space="preserve">68.12
+</t>
+  </si>
+  <si>
+    <t>29,461,900</t>
+  </si>
+  <si>
+    <t>8,827,660</t>
   </si>
   <si>
     <t>Nishat Mills Limited</t>
@@ -901,14 +901,14 @@
     <t>71,341,773</t>
   </si>
   <si>
-    <t xml:space="preserve">105.25
-</t>
-  </si>
-  <si>
-    <t>77,724,388</t>
-  </si>
-  <si>
-    <t>6,382,615</t>
+    <t xml:space="preserve">105.04
+</t>
+  </si>
+  <si>
+    <t>77,569,309</t>
+  </si>
+  <si>
+    <t>6,227,536</t>
   </si>
   <si>
     <t>Oil &amp; Gas Development Company Limited</t>
@@ -926,14 +926,14 @@
     <t>232,760,985</t>
   </si>
   <si>
-    <t xml:space="preserve">104.70
-</t>
-  </si>
-  <si>
-    <t>193,051,618</t>
-  </si>
-  <si>
-    <t>(39,709,366)</t>
+    <t xml:space="preserve">104.94
+</t>
+  </si>
+  <si>
+    <t>193,494,144</t>
+  </si>
+  <si>
+    <t>(39,266,841)</t>
   </si>
   <si>
     <t>Pak Suzuki Motor Company</t>
@@ -951,14 +951,14 @@
     <t>19,843,137</t>
   </si>
   <si>
-    <t xml:space="preserve">221.00
-</t>
-  </si>
-  <si>
-    <t>22,895,600</t>
-  </si>
-  <si>
-    <t>3,052,463</t>
+    <t xml:space="preserve">224.11
+</t>
+  </si>
+  <si>
+    <t>23,217,796</t>
+  </si>
+  <si>
+    <t>3,374,659</t>
   </si>
   <si>
     <t>Pakistan National Shipping Co.</t>
@@ -976,14 +976,14 @@
     <t>23,196,890</t>
   </si>
   <si>
-    <t xml:space="preserve">90.00
-</t>
-  </si>
-  <si>
-    <t>25,785,000</t>
-  </si>
-  <si>
-    <t>2,588,110</t>
+    <t xml:space="preserve">90.40
+</t>
+  </si>
+  <si>
+    <t>25,899,600</t>
+  </si>
+  <si>
+    <t>2,702,710</t>
   </si>
   <si>
     <t>Pakistan Oilfields Limited</t>
@@ -1001,14 +1001,14 @@
     <t>98,298,528</t>
   </si>
   <si>
-    <t xml:space="preserve">423.00
-</t>
-  </si>
-  <si>
-    <t>101,842,749</t>
-  </si>
-  <si>
-    <t>3,544,221</t>
+    <t xml:space="preserve">424.10
+</t>
+  </si>
+  <si>
+    <t>102,107,588</t>
+  </si>
+  <si>
+    <t>3,809,060</t>
   </si>
   <si>
     <t>Pakistan Petroleum Limited</t>
@@ -1026,14 +1026,14 @@
     <t>230,834,179</t>
   </si>
   <si>
-    <t xml:space="preserve">93.40
-</t>
-  </si>
-  <si>
-    <t>195,366,088</t>
-  </si>
-  <si>
-    <t>(35,468,092)</t>
+    <t xml:space="preserve">92.88
+</t>
+  </si>
+  <si>
+    <t>194,278,396</t>
+  </si>
+  <si>
+    <t>(36,555,783)</t>
   </si>
   <si>
     <t>Pakistan State Oil</t>
@@ -1051,14 +1051,14 @@
     <t>114,247,038</t>
   </si>
   <si>
-    <t xml:space="preserve">202.51
-</t>
-  </si>
-  <si>
-    <t>129,682,341</t>
-  </si>
-  <si>
-    <t>15,435,303</t>
+    <t xml:space="preserve">205.62
+</t>
+  </si>
+  <si>
+    <t>131,673,908</t>
+  </si>
+  <si>
+    <t>17,426,869</t>
   </si>
   <si>
     <t>Pioneer Cement</t>
@@ -1076,14 +1076,14 @@
     <t>18,343,446</t>
   </si>
   <si>
-    <t xml:space="preserve">98.84
-</t>
-  </si>
-  <si>
-    <t>33,803,280</t>
-  </si>
-  <si>
-    <t>15,459,834</t>
+    <t xml:space="preserve">98.23
+</t>
+  </si>
+  <si>
+    <t>33,594,660</t>
+  </si>
+  <si>
+    <t>15,251,214</t>
   </si>
   <si>
     <t>Sui Northern Gas Pipelines Limited</t>
@@ -1126,14 +1126,14 @@
     <t>580,169</t>
   </si>
   <si>
-    <t xml:space="preserve">48.30
-</t>
-  </si>
-  <si>
-    <t>477,639</t>
-  </si>
-  <si>
-    <t>(102,531)</t>
+    <t xml:space="preserve">47.93
+</t>
+  </si>
+  <si>
+    <t>473,980</t>
+  </si>
+  <si>
+    <t>(106,190)</t>
   </si>
   <si>
     <t>Systems Limited</t>
@@ -1151,14 +1151,14 @@
     <t>47,692,858</t>
   </si>
   <si>
-    <t xml:space="preserve">298.53
-</t>
-  </si>
-  <si>
-    <t>118,089,512</t>
-  </si>
-  <si>
-    <t>70,396,655</t>
+    <t xml:space="preserve">299.48
+</t>
+  </si>
+  <si>
+    <t>118,465,304</t>
+  </si>
+  <si>
+    <t>70,772,446</t>
   </si>
   <si>
     <t>THAL LIMITED</t>
@@ -1176,14 +1176,14 @@
     <t>31,294,637</t>
   </si>
   <si>
-    <t xml:space="preserve">411.00
-</t>
-  </si>
-  <si>
-    <t>39,127,200</t>
-  </si>
-  <si>
-    <t>7,832,563</t>
+    <t xml:space="preserve">426.01
+</t>
+  </si>
+  <si>
+    <t>40,556,152</t>
+  </si>
+  <si>
+    <t>9,261,515</t>
   </si>
   <si>
     <t>The Organic Meat Company Limited</t>
@@ -1201,14 +1201,14 @@
     <t>1,050,480</t>
   </si>
   <si>
-    <t xml:space="preserve">30.25
-</t>
-  </si>
-  <si>
-    <t>1,588,851</t>
-  </si>
-  <si>
-    <t>538,371</t>
+    <t xml:space="preserve">31.38
+</t>
+  </si>
+  <si>
+    <t>1,648,203</t>
+  </si>
+  <si>
+    <t>597,723</t>
   </si>
   <si>
     <t>The Searle Company</t>
@@ -1226,14 +1226,14 @@
     <t>64,601,698</t>
   </si>
   <si>
-    <t xml:space="preserve">273.00
-</t>
-  </si>
-  <si>
-    <t>76,377,483</t>
-  </si>
-  <si>
-    <t>11,775,785</t>
+    <t xml:space="preserve">271.38
+</t>
+  </si>
+  <si>
+    <t>75,924,254</t>
+  </si>
+  <si>
+    <t>11,322,556</t>
   </si>
   <si>
     <t>Unity Foods Limited</t>
@@ -1251,14 +1251,14 @@
     <t>12,924,125</t>
   </si>
   <si>
-    <t xml:space="preserve">18.09
-</t>
-  </si>
-  <si>
-    <t>21,916,035</t>
-  </si>
-  <si>
-    <t>8,991,910</t>
+    <t xml:space="preserve">18.04
+</t>
+  </si>
+  <si>
+    <t>21,855,460</t>
+  </si>
+  <si>
+    <t>8,931,335</t>
   </si>
   <si>
     <t>Unity Foods Limited(R2)</t>

--- a/bin/Debug/netcoreapp3.1/FundMarketSummary.xlsx
+++ b/bin/Debug/netcoreapp3.1/FundMarketSummary.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="333">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -44,104 +44,896 @@
     <t>APPRECIATION / DEPRECIATION</t>
   </si>
   <si>
+    <t>Hub Power Company</t>
+  </si>
+  <si>
+    <t>HUBC</t>
+  </si>
+  <si>
+    <t>1,104,695</t>
+  </si>
+  <si>
+    <t>88.81</t>
+  </si>
+  <si>
+    <t>98,105,260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.75
+</t>
+  </si>
+  <si>
+    <t>88,099,426</t>
+  </si>
+  <si>
+    <t>(10,005,834)</t>
+  </si>
+  <si>
+    <t>Pakistan State Oil</t>
+  </si>
+  <si>
+    <t>PSO</t>
+  </si>
+  <si>
+    <t>549,586</t>
+  </si>
+  <si>
+    <t>179.99</t>
+  </si>
+  <si>
+    <t>98,920,287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">195.00
+</t>
+  </si>
+  <si>
+    <t>107,169,270</t>
+  </si>
+  <si>
+    <t>8,248,983</t>
+  </si>
+  <si>
+    <t>D. G. Khan Cement</t>
+  </si>
+  <si>
+    <t>DGKC</t>
+  </si>
+  <si>
+    <t>572,640</t>
+  </si>
+  <si>
+    <t>88.8</t>
+  </si>
+  <si>
+    <t>50,847,702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105.50
+</t>
+  </si>
+  <si>
+    <t>60,413,520</t>
+  </si>
+  <si>
+    <t>9,565,818</t>
+  </si>
+  <si>
+    <t>Attock Cement Pakistan Limited</t>
+  </si>
+  <si>
+    <t>ACPL</t>
+  </si>
+  <si>
+    <t>170,900</t>
+  </si>
+  <si>
+    <t>133.45</t>
+  </si>
+  <si>
+    <t>22,807,194</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>(22,807,194)</t>
+  </si>
+  <si>
+    <t>The Searle Company</t>
+  </si>
+  <si>
+    <t>SEARL</t>
+  </si>
+  <si>
+    <t>242,271</t>
+  </si>
+  <si>
+    <t>230.91</t>
+  </si>
+  <si>
+    <t>55,942,603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">239.90
+</t>
+  </si>
+  <si>
+    <t>58,120,813</t>
+  </si>
+  <si>
+    <t>2,178,210</t>
+  </si>
+  <si>
+    <t>Engro Fertilizer Limited</t>
+  </si>
+  <si>
+    <t>EFERT</t>
+  </si>
+  <si>
+    <t>672,893</t>
+  </si>
+  <si>
+    <t>66.12</t>
+  </si>
+  <si>
+    <t>44,493,109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.00
+</t>
+  </si>
+  <si>
+    <t>41,719,366</t>
+  </si>
+  <si>
+    <t>(2,773,743)</t>
+  </si>
+  <si>
+    <t>Engro Corporation</t>
+  </si>
+  <si>
+    <t>ENGRO</t>
+  </si>
+  <si>
+    <t>473,199</t>
+  </si>
+  <si>
+    <t>303.75</t>
+  </si>
+  <si>
+    <t>143,733,830</t>
+  </si>
+  <si>
+    <t xml:space="preserve">305.11
+</t>
+  </si>
+  <si>
+    <t>144,377,747</t>
+  </si>
+  <si>
+    <t>643,916</t>
+  </si>
+  <si>
+    <t>Pakistan Petroleum Limited</t>
+  </si>
+  <si>
+    <t>PPL</t>
+  </si>
+  <si>
+    <t>1,772,214</t>
+  </si>
+  <si>
+    <t>109.38</t>
+  </si>
+  <si>
+    <t>193,840,909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.10
+</t>
+  </si>
+  <si>
+    <t>152,587,625</t>
+  </si>
+  <si>
+    <t>(41,253,284)</t>
+  </si>
+  <si>
+    <t>Pioneer Cement</t>
+  </si>
+  <si>
+    <t>PIOC</t>
+  </si>
+  <si>
+    <t>224,000</t>
+  </si>
+  <si>
+    <t>53.64</t>
+  </si>
+  <si>
+    <t>12,014,420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.20
+</t>
+  </si>
+  <si>
+    <t>19,532,800</t>
+  </si>
+  <si>
+    <t>7,518,380</t>
+  </si>
+  <si>
+    <t>Sui Northern Gas Pipelines Limited</t>
+  </si>
+  <si>
+    <t>SNGP</t>
+  </si>
+  <si>
+    <t>993,107</t>
+  </si>
+  <si>
+    <t>64.97</t>
+  </si>
+  <si>
+    <t>64,519,236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.14
+</t>
+  </si>
+  <si>
+    <t>46,815,064</t>
+  </si>
+  <si>
+    <t>(17,704,172)</t>
+  </si>
+  <si>
+    <t>Cherat Cement Company Limited</t>
+  </si>
+  <si>
+    <t>CHCC</t>
+  </si>
+  <si>
+    <t>261,000</t>
+  </si>
+  <si>
+    <t>97.91</t>
+  </si>
+  <si>
+    <t>25,554,364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127.76
+</t>
+  </si>
+  <si>
+    <t>33,345,360</t>
+  </si>
+  <si>
+    <t>7,790,996</t>
+  </si>
+  <si>
+    <t>Mughal Iron &amp; Steel Industries</t>
+  </si>
+  <si>
+    <t>MUGHAL</t>
+  </si>
+  <si>
+    <t>340,000</t>
+  </si>
+  <si>
+    <t>52.05</t>
+  </si>
+  <si>
+    <t>17,696,430</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.50
+</t>
+  </si>
+  <si>
+    <t>20,570,000</t>
+  </si>
+  <si>
+    <t>2,873,570</t>
+  </si>
+  <si>
+    <t>Ittehad Chemicals Ltd</t>
+  </si>
+  <si>
+    <t>ICL</t>
+  </si>
+  <si>
+    <t>738,000</t>
+  </si>
+  <si>
+    <t>27.41</t>
+  </si>
+  <si>
+    <t>20,225,613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.25
+</t>
+  </si>
+  <si>
+    <t>23,800,500</t>
+  </si>
+  <si>
+    <t>3,574,887</t>
+  </si>
+  <si>
+    <t>Fauji Fertilizer Company</t>
+  </si>
+  <si>
+    <t>FFC</t>
+  </si>
+  <si>
+    <t>287,000</t>
+  </si>
+  <si>
+    <t>110.02</t>
+  </si>
+  <si>
+    <t>31,575,950</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104.70
+</t>
+  </si>
+  <si>
+    <t>30,048,900</t>
+  </si>
+  <si>
+    <t>(1,527,050)</t>
+  </si>
+  <si>
+    <t>Kohat Cement</t>
+  </si>
+  <si>
+    <t>KOHC</t>
+  </si>
+  <si>
+    <t>59,200</t>
+  </si>
+  <si>
+    <t>104.9</t>
+  </si>
+  <si>
+    <t>6,209,821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">213.00
+</t>
+  </si>
+  <si>
+    <t>12,609,600</t>
+  </si>
+  <si>
+    <t>6,399,779</t>
+  </si>
+  <si>
+    <t>At Tahur Limited</t>
+  </si>
+  <si>
+    <t>PREMA</t>
+  </si>
+  <si>
+    <t>286,000</t>
+  </si>
+  <si>
+    <t>17.67</t>
+  </si>
+  <si>
+    <t>5,053,489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.70
+</t>
+  </si>
+  <si>
+    <t>5,062,200</t>
+  </si>
+  <si>
+    <t>8,711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lotte Chemical Pakistan Ltd </t>
+  </si>
+  <si>
+    <t>LOTCHEM</t>
+  </si>
+  <si>
+    <t>1,698,500</t>
+  </si>
+  <si>
+    <t>11.35</t>
+  </si>
+  <si>
+    <t>19,277,948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.20
+</t>
+  </si>
+  <si>
+    <t>20,721,700</t>
+  </si>
+  <si>
+    <t>1,443,752</t>
+  </si>
+  <si>
+    <t>Unity Foods Limited</t>
+  </si>
+  <si>
+    <t>UNITY</t>
+  </si>
+  <si>
+    <t>1,834,567</t>
+  </si>
+  <si>
+    <t>11.92</t>
+  </si>
+  <si>
+    <t>21,862,509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.40
+</t>
+  </si>
+  <si>
+    <t>41,094,301</t>
+  </si>
+  <si>
+    <t>19,231,792</t>
+  </si>
+  <si>
+    <t>Pak Suzuki Motor Company</t>
+  </si>
+  <si>
+    <t>PSMC</t>
+  </si>
+  <si>
+    <t>18,200</t>
+  </si>
+  <si>
+    <t>191.54</t>
+  </si>
+  <si>
+    <t>3,485,957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">198.99
+</t>
+  </si>
+  <si>
+    <t>3,621,618</t>
+  </si>
+  <si>
+    <t>135,661</t>
+  </si>
+  <si>
+    <t>Maple Leaf Cement Factory Limited</t>
+  </si>
+  <si>
+    <t>MLCF</t>
+  </si>
+  <si>
+    <t>1,342,160</t>
+  </si>
+  <si>
+    <t>28.41</t>
+  </si>
+  <si>
+    <t>38,130,182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.39
+</t>
+  </si>
+  <si>
+    <t>52,867,682</t>
+  </si>
+  <si>
+    <t>14,737,501</t>
+  </si>
+  <si>
+    <t>Lucky Cement</t>
+  </si>
+  <si>
+    <t>LCL</t>
+  </si>
+  <si>
+    <t>282,968</t>
+  </si>
+  <si>
+    <t>466.21</t>
+  </si>
+  <si>
+    <t>131,921,780</t>
+  </si>
+  <si>
+    <t xml:space="preserve">651.52
+</t>
+  </si>
+  <si>
+    <t>184,359,311</t>
+  </si>
+  <si>
+    <t>52,437,532</t>
+  </si>
+  <si>
+    <t>International Industries</t>
+  </si>
+  <si>
+    <t>INIL</t>
+  </si>
+  <si>
+    <t>73,996</t>
+  </si>
+  <si>
+    <t>98.96</t>
+  </si>
+  <si>
+    <t>7,322,803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135.50
+</t>
+  </si>
+  <si>
+    <t>10,026,458</t>
+  </si>
+  <si>
+    <t>2,703,655</t>
+  </si>
+  <si>
+    <t>Kohinoor Textile</t>
+  </si>
+  <si>
+    <t>KTML</t>
+  </si>
+  <si>
+    <t>724,251</t>
+  </si>
+  <si>
+    <t>40.71</t>
+  </si>
+  <si>
+    <t>29,484,213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.00
+</t>
+  </si>
+  <si>
+    <t>41,282,307</t>
+  </si>
+  <si>
+    <t>11,798,094</t>
+  </si>
+  <si>
+    <t>Mari Petroleum Co. Ltd</t>
+  </si>
+  <si>
+    <t>MARI</t>
+  </si>
+  <si>
+    <t>71,164</t>
+  </si>
+  <si>
+    <t>1044.73</t>
+  </si>
+  <si>
+    <t>74,346,919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1265.00
+</t>
+  </si>
+  <si>
+    <t>90,022,460</t>
+  </si>
+  <si>
+    <t>15,675,541</t>
+  </si>
+  <si>
+    <t>Engro Polymer &amp; Chemicals Limited</t>
+  </si>
+  <si>
+    <t>EPCL</t>
+  </si>
+  <si>
+    <t>928,000</t>
+  </si>
+  <si>
+    <t>31.43</t>
+  </si>
+  <si>
+    <t>29,164,075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.00
+</t>
+  </si>
+  <si>
+    <t>38,976,000</t>
+  </si>
+  <si>
+    <t>9,811,925</t>
+  </si>
+  <si>
+    <t>Millat Tractors</t>
+  </si>
+  <si>
+    <t>MTL</t>
+  </si>
+  <si>
+    <t>33,981</t>
+  </si>
+  <si>
+    <t>874.31</t>
+  </si>
+  <si>
+    <t>29,710,032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">950.00
+</t>
+  </si>
+  <si>
+    <t>32,281,950</t>
+  </si>
+  <si>
+    <t>2,571,918</t>
+  </si>
+  <si>
+    <t>Hascol Petroleum</t>
+  </si>
+  <si>
+    <t>HASCOL</t>
+  </si>
+  <si>
+    <t>1,508,240</t>
+  </si>
+  <si>
+    <t>15.63</t>
+  </si>
+  <si>
+    <t>23,577,888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.28
+</t>
+  </si>
+  <si>
+    <t>21,537,667</t>
+  </si>
+  <si>
+    <t>(2,040,220)</t>
+  </si>
+  <si>
+    <t>Highnoon (Lab)</t>
+  </si>
+  <si>
+    <t>HINOON</t>
+  </si>
+  <si>
+    <t>72,331</t>
+  </si>
+  <si>
+    <t>554.63</t>
+  </si>
+  <si>
+    <t>40,117,161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">616.00
+</t>
+  </si>
+  <si>
+    <t>44,555,896</t>
+  </si>
+  <si>
+    <t>4,438,735</t>
+  </si>
+  <si>
+    <t>Meezan Bank Limited</t>
+  </si>
+  <si>
+    <t>MEBL</t>
+  </si>
+  <si>
+    <t>1,014,400</t>
+  </si>
+  <si>
+    <t>68.36</t>
+  </si>
+  <si>
+    <t>69,339,994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89.00
+</t>
+  </si>
+  <si>
+    <t>90,281,600</t>
+  </si>
+  <si>
+    <t>20,941,606</t>
+  </si>
+  <si>
+    <t>Interloop Limited</t>
+  </si>
+  <si>
+    <t>ILP</t>
+  </si>
+  <si>
+    <t>302,750</t>
+  </si>
+  <si>
+    <t>49.29</t>
+  </si>
+  <si>
+    <t>14,923,206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.75
+</t>
+  </si>
+  <si>
+    <t>17,181,062</t>
+  </si>
+  <si>
+    <t>2,257,857</t>
+  </si>
+  <si>
+    <t>Oil &amp; Gas Development Company Limited</t>
+  </si>
+  <si>
+    <t>OGDC</t>
+  </si>
+  <si>
+    <t>1,572,355</t>
+  </si>
+  <si>
+    <t>125.12</t>
+  </si>
+  <si>
+    <t>196,740,710</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96.68
+</t>
+  </si>
+  <si>
+    <t>152,015,281</t>
+  </si>
+  <si>
+    <t>(44,725,429)</t>
+  </si>
+  <si>
+    <t>Nishat Mills Limited</t>
+  </si>
+  <si>
+    <t>NML</t>
+  </si>
+  <si>
+    <t>531,974</t>
+  </si>
+  <si>
+    <t>96.71</t>
+  </si>
+  <si>
+    <t>51,445,755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89.88
+</t>
+  </si>
+  <si>
+    <t>47,813,823</t>
+  </si>
+  <si>
+    <t>(3,631,932)</t>
+  </si>
+  <si>
+    <t>THAL LIMITED</t>
+  </si>
+  <si>
+    <t>THALL</t>
+  </si>
+  <si>
+    <t>75,500</t>
+  </si>
+  <si>
+    <t>328.73</t>
+  </si>
+  <si>
+    <t>24,818,751</t>
+  </si>
+  <si>
+    <t>(24,818,751)</t>
+  </si>
+  <si>
+    <t>Honda Atlas Cars (Pakistan) Limited</t>
+  </si>
+  <si>
+    <t>HCAR</t>
+  </si>
+  <si>
+    <t>37,700</t>
+  </si>
+  <si>
+    <t>251.65</t>
+  </si>
+  <si>
+    <t>9,487,031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">296.49
+</t>
+  </si>
+  <si>
+    <t>11,177,673</t>
+  </si>
+  <si>
+    <t>1,690,642</t>
+  </si>
+  <si>
+    <t>Systems Limited</t>
+  </si>
+  <si>
+    <t>SYS</t>
+  </si>
+  <si>
+    <t>253,470</t>
+  </si>
+  <si>
+    <t>125.54</t>
+  </si>
+  <si>
+    <t>31,819,498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">333.10
+</t>
+  </si>
+  <si>
+    <t>84,430,857</t>
+  </si>
+  <si>
+    <t>52,611,359</t>
+  </si>
+  <si>
     <t>Al Shaheer Corporation Limited</t>
   </si>
   <si>
     <t>ASC</t>
   </si>
   <si>
-    <t>556</t>
+    <t>475</t>
   </si>
   <si>
     <t>45.04</t>
   </si>
   <si>
-    <t>25,045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.57
-</t>
-  </si>
-  <si>
-    <t>11,437</t>
-  </si>
-  <si>
-    <t>(13,608)</t>
-  </si>
-  <si>
-    <t>At Tahur Limited</t>
-  </si>
-  <si>
-    <t>PREMA</t>
-  </si>
-  <si>
-    <t>446,000</t>
-  </si>
-  <si>
-    <t>17.54</t>
-  </si>
-  <si>
-    <t>7,820,772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.03
-</t>
-  </si>
-  <si>
-    <t>9,379,380</t>
-  </si>
-  <si>
-    <t>1,558,608</t>
-  </si>
-  <si>
-    <t>Attock Cement Pakistan Limited</t>
-  </si>
-  <si>
-    <t>ACPL</t>
-  </si>
-  <si>
-    <t>156,000</t>
-  </si>
-  <si>
-    <t>127.21</t>
-  </si>
-  <si>
-    <t>19,845,476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">167.42
-</t>
-  </si>
-  <si>
-    <t>26,117,520</t>
-  </si>
-  <si>
-    <t>6,272,044</t>
-  </si>
-  <si>
-    <t>Bankislami Pakistan Ltd.</t>
-  </si>
-  <si>
-    <t>BIPL</t>
-  </si>
-  <si>
-    <t>2,000</t>
-  </si>
-  <si>
-    <t>13.13</t>
-  </si>
-  <si>
-    <t>26,252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.66
-</t>
-  </si>
-  <si>
-    <t>21,320</t>
-  </si>
-  <si>
-    <t>(4,932)</t>
+    <t>21,396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.90
+</t>
+  </si>
+  <si>
+    <t>9,452</t>
+  </si>
+  <si>
+    <t>(11,944)</t>
   </si>
   <si>
     <t>Century Paper &amp; Board Mills</t>
@@ -150,447 +942,48 @@
     <t>CEPB</t>
   </si>
   <si>
-    <t>285,000</t>
-  </si>
-  <si>
-    <t>71.23</t>
-  </si>
-  <si>
-    <t>20,300,902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115.07
-</t>
-  </si>
-  <si>
-    <t>32,794,950</t>
-  </si>
-  <si>
-    <t>12,494,048</t>
-  </si>
-  <si>
-    <t>Cherat Cement Company Limited</t>
-  </si>
-  <si>
-    <t>CHCC</t>
-  </si>
-  <si>
-    <t>345,500</t>
-  </si>
-  <si>
-    <t>95.65</t>
-  </si>
-  <si>
-    <t>33,046,320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130.24
-</t>
-  </si>
-  <si>
-    <t>44,997,920</t>
-  </si>
-  <si>
-    <t>11,951,600</t>
-  </si>
-  <si>
-    <t>D. G. Khan Cement</t>
-  </si>
-  <si>
-    <t>DGKC</t>
-  </si>
-  <si>
-    <t>725,140</t>
-  </si>
-  <si>
-    <t>85.58</t>
-  </si>
-  <si>
-    <t>62,057,378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112.83
-</t>
-  </si>
-  <si>
-    <t>81,817,546</t>
-  </si>
-  <si>
-    <t>19,760,169</t>
-  </si>
-  <si>
-    <t>Dawood Hercules Corporation Limited</t>
-  </si>
-  <si>
-    <t>DAWH</t>
-  </si>
-  <si>
-    <t>3,684</t>
-  </si>
-  <si>
-    <t>158.03</t>
-  </si>
-  <si>
-    <t>582,193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">129.14
-</t>
-  </si>
-  <si>
-    <t>475,752</t>
-  </si>
-  <si>
-    <t>(106,442)</t>
-  </si>
-  <si>
-    <t>Engro Corporation</t>
-  </si>
-  <si>
-    <t>ENGRO</t>
-  </si>
-  <si>
-    <t>767,699</t>
-  </si>
-  <si>
-    <t>303.98</t>
-  </si>
-  <si>
-    <t>233,362,180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">304.75
-</t>
-  </si>
-  <si>
-    <t>233,956,270</t>
-  </si>
-  <si>
-    <t>594,090</t>
-  </si>
-  <si>
-    <t>Engro Fertilizer Limited</t>
-  </si>
-  <si>
-    <t>EFERT</t>
-  </si>
-  <si>
-    <t>1,536,893</t>
-  </si>
-  <si>
-    <t>66.1</t>
-  </si>
-  <si>
-    <t>101,589,373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.74
-</t>
-  </si>
-  <si>
-    <t>94,887,774</t>
-  </si>
-  <si>
-    <t>(6,701,599)</t>
-  </si>
-  <si>
-    <t>Engro Polymer &amp; Chemicals Limited</t>
-  </si>
-  <si>
-    <t>EPCL</t>
-  </si>
-  <si>
-    <t>1,085,000</t>
-  </si>
-  <si>
-    <t>30.04</t>
-  </si>
-  <si>
-    <t>32,595,635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.93
-</t>
-  </si>
-  <si>
-    <t>48,749,050</t>
-  </si>
-  <si>
-    <t>16,153,415</t>
-  </si>
-  <si>
-    <t>Fauji Cement</t>
-  </si>
-  <si>
-    <t>FCCL</t>
-  </si>
-  <si>
-    <t>148,500</t>
-  </si>
-  <si>
-    <t>18.41</t>
-  </si>
-  <si>
-    <t>2,734,246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.13
-</t>
-  </si>
-  <si>
-    <t>3,137,805</t>
-  </si>
-  <si>
-    <t>403,559</t>
-  </si>
-  <si>
-    <t>Fauji Fertilizer Company</t>
-  </si>
-  <si>
-    <t>FAUF</t>
-  </si>
-  <si>
-    <t>17,300</t>
-  </si>
-  <si>
-    <t>94.09</t>
-  </si>
-  <si>
-    <t>1,627,783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109.99
-</t>
-  </si>
-  <si>
-    <t>1,902,827</t>
-  </si>
-  <si>
-    <t>275,044</t>
-  </si>
-  <si>
-    <t>Ferozsons Laboratory Limited</t>
-  </si>
-  <si>
-    <t>FEROZ</t>
-  </si>
-  <si>
-    <t>1,700</t>
-  </si>
-  <si>
-    <t>373.01</t>
-  </si>
-  <si>
-    <t>634,120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">419.71
-</t>
-  </si>
-  <si>
-    <t>713,507</t>
-  </si>
-  <si>
-    <t>79,387</t>
-  </si>
-  <si>
-    <t>GLAXOMITHKLINE Pakistan Limited</t>
-  </si>
-  <si>
-    <t>GLAXO</t>
-  </si>
-  <si>
-    <t>7,200</t>
-  </si>
-  <si>
-    <t>162.58</t>
-  </si>
-  <si>
-    <t>1,170,570</t>
-  </si>
-  <si>
-    <t xml:space="preserve">185.89
-</t>
-  </si>
-  <si>
-    <t>1,338,408</t>
-  </si>
-  <si>
-    <t>167,838</t>
-  </si>
-  <si>
-    <t>Hascol Petroleum</t>
-  </si>
-  <si>
-    <t>HASCOL</t>
-  </si>
-  <si>
-    <t>1,838,240</t>
-  </si>
-  <si>
-    <t>14.21</t>
-  </si>
-  <si>
-    <t>26,127,844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.08
-</t>
-  </si>
-  <si>
-    <t>38,750,099</t>
-  </si>
-  <si>
-    <t>12,622,255</t>
-  </si>
-  <si>
-    <t>Highnoon (Lab)</t>
-  </si>
-  <si>
-    <t>HINOON</t>
-  </si>
-  <si>
-    <t>86,181</t>
-  </si>
-  <si>
-    <t>554.63</t>
-  </si>
-  <si>
-    <t>47,798,829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">628
-</t>
-  </si>
-  <si>
-    <t>54,121,668</t>
-  </si>
-  <si>
-    <t>6,322,839</t>
-  </si>
-  <si>
-    <t>Honda Atlas Cars (Pakistan) Limited</t>
-  </si>
-  <si>
-    <t>HCAR</t>
-  </si>
-  <si>
-    <t>45,700</t>
-  </si>
-  <si>
-    <t>205.37</t>
-  </si>
-  <si>
-    <t>9,385,593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">304.89
-</t>
-  </si>
-  <si>
-    <t>13,933,473</t>
-  </si>
-  <si>
-    <t>4,547,880</t>
-  </si>
-  <si>
-    <t>Hub Power Company</t>
-  </si>
-  <si>
-    <t>HUBC</t>
-  </si>
-  <si>
-    <t>1,463,695</t>
-  </si>
-  <si>
-    <t>89.66</t>
-  </si>
-  <si>
-    <t>131,231,845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.26
-</t>
-  </si>
-  <si>
-    <t>118,939,856</t>
-  </si>
-  <si>
-    <t>(12,291,989)</t>
-  </si>
-  <si>
-    <t>ICI Pakistan Limited</t>
-  </si>
-  <si>
-    <t>ICI</t>
-  </si>
-  <si>
-    <t>9,787</t>
-  </si>
-  <si>
-    <t>689.33</t>
-  </si>
-  <si>
-    <t>6,746,484</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>(6,746,484)</t>
-  </si>
-  <si>
-    <t>Interloop Limited</t>
-  </si>
-  <si>
-    <t>ILP</t>
-  </si>
-  <si>
-    <t>506,750</t>
-  </si>
-  <si>
-    <t>49.06</t>
-  </si>
-  <si>
-    <t>24,863,394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.90
-</t>
-  </si>
-  <si>
-    <t>34,915,075</t>
-  </si>
-  <si>
-    <t>10,051,681</t>
-  </si>
-  <si>
-    <t>International Industries</t>
-  </si>
-  <si>
-    <t>INIL</t>
-  </si>
-  <si>
-    <t>110,996</t>
-  </si>
-  <si>
-    <t>98.96</t>
-  </si>
-  <si>
-    <t>10,984,402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">154.50
-</t>
-  </si>
-  <si>
-    <t>17,148,882</t>
-  </si>
-  <si>
-    <t>6,164,480</t>
+    <t>231,600</t>
+  </si>
+  <si>
+    <t>59.36</t>
+  </si>
+  <si>
+    <t>13,747,629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102.75
+</t>
+  </si>
+  <si>
+    <t>23,796,900</t>
+  </si>
+  <si>
+    <t>10,049,271</t>
+  </si>
+  <si>
+    <t>Pakistan Oilfields Limited</t>
+  </si>
+  <si>
+    <t>POL</t>
+  </si>
+  <si>
+    <t>168,962</t>
+  </si>
+  <si>
+    <t>408.68</t>
+  </si>
+  <si>
+    <t>69,051,683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">356.00
+</t>
+  </si>
+  <si>
+    <t>60,150,472</t>
+  </si>
+  <si>
+    <t>(8,901,211)</t>
   </si>
   <si>
     <t>International Steels Limited</t>
@@ -599,366 +992,41 @@
     <t>ISL</t>
   </si>
   <si>
-    <t>279,429</t>
-  </si>
-  <si>
-    <t>50.62</t>
-  </si>
-  <si>
-    <t>14,145,453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.63
-</t>
-  </si>
-  <si>
-    <t>22,250,931</t>
-  </si>
-  <si>
-    <t>8,105,478</t>
-  </si>
-  <si>
-    <t>Ittehad Chemicals Ltd</t>
-  </si>
-  <si>
-    <t>ICL</t>
-  </si>
-  <si>
-    <t>488,000</t>
-  </si>
-  <si>
-    <t>24.86</t>
-  </si>
-  <si>
-    <t>12,131,403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.14
-</t>
-  </si>
-  <si>
-    <t>14,220,320</t>
-  </si>
-  <si>
-    <t>2,088,917</t>
-  </si>
-  <si>
-    <t>K-Electric Limited</t>
-  </si>
-  <si>
-    <t>KEL</t>
-  </si>
-  <si>
-    <t>587,500</t>
-  </si>
-  <si>
-    <t>4.08</t>
-  </si>
-  <si>
-    <t>2,397,494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18
-</t>
-  </si>
-  <si>
-    <t>2,455,750</t>
-  </si>
-  <si>
-    <t>58,257</t>
-  </si>
-  <si>
-    <t>Kohat Cement</t>
-  </si>
-  <si>
-    <t>KOHC</t>
-  </si>
-  <si>
-    <t>118,700</t>
-  </si>
-  <si>
-    <t>104.9</t>
-  </si>
-  <si>
-    <t>12,451,110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200
-</t>
-  </si>
-  <si>
-    <t>23,740,000</t>
-  </si>
-  <si>
-    <t>11,288,890</t>
-  </si>
-  <si>
-    <t>Kohinoor Textile</t>
-  </si>
-  <si>
-    <t>KTML</t>
-  </si>
-  <si>
-    <t>1,033,251</t>
-  </si>
-  <si>
-    <t>40.56</t>
-  </si>
-  <si>
-    <t>41,911,613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.54
-</t>
-  </si>
-  <si>
-    <t>62,553,016</t>
-  </si>
-  <si>
-    <t>20,641,403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lotte Chemical Pakistan Ltd </t>
-  </si>
-  <si>
-    <t>LOTCHEM</t>
-  </si>
-  <si>
-    <t>1,938,500</t>
-  </si>
-  <si>
-    <t>10.9</t>
-  </si>
-  <si>
-    <t>21,126,686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.69
-</t>
-  </si>
-  <si>
-    <t>24,599,565</t>
-  </si>
-  <si>
-    <t>3,472,879</t>
-  </si>
-  <si>
-    <t>Lucky Cement</t>
-  </si>
-  <si>
-    <t>LUCK</t>
-  </si>
-  <si>
-    <t>359,968</t>
-  </si>
-  <si>
-    <t>442.37</t>
-  </si>
-  <si>
-    <t>159,240,184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">662.86
-</t>
-  </si>
-  <si>
-    <t>238,608,388</t>
-  </si>
-  <si>
-    <t>79,368,205</t>
-  </si>
-  <si>
-    <t>Maple Leaf Cement Factory Limited</t>
-  </si>
-  <si>
-    <t>MLCF</t>
-  </si>
-  <si>
-    <t>1,668,160</t>
-  </si>
-  <si>
-    <t>26.93</t>
-  </si>
-  <si>
-    <t>44,922,183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.70
-</t>
-  </si>
-  <si>
-    <t>66,225,952</t>
-  </si>
-  <si>
-    <t>21,303,769</t>
-  </si>
-  <si>
-    <t>Mari Petroleum Co. Ltd</t>
-  </si>
-  <si>
-    <t>MARI</t>
-  </si>
-  <si>
-    <t>97,144</t>
-  </si>
-  <si>
-    <t>1044.73</t>
-  </si>
-  <si>
-    <t>101,488,914</t>
-  </si>
-  <si>
-    <t>(101,488,914)</t>
-  </si>
-  <si>
-    <t>Meezan Bank Limited</t>
-  </si>
-  <si>
-    <t>MEBL</t>
-  </si>
-  <si>
-    <t>1,258,455</t>
-  </si>
-  <si>
-    <t>74.66</t>
-  </si>
-  <si>
-    <t>93,959,562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.23
-</t>
-  </si>
-  <si>
-    <t>100,965,845</t>
-  </si>
-  <si>
-    <t>7,006,283</t>
-  </si>
-  <si>
-    <t>Millat Tractors</t>
-  </si>
-  <si>
-    <t>MTL</t>
-  </si>
-  <si>
-    <t>51,981</t>
-  </si>
-  <si>
-    <t>874.31</t>
-  </si>
-  <si>
-    <t>45,447,667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">879.55
-</t>
-  </si>
-  <si>
-    <t>45,719,889</t>
-  </si>
-  <si>
-    <t>272,221</t>
-  </si>
-  <si>
-    <t>Mughal Iron &amp; Steel Industries</t>
-  </si>
-  <si>
-    <t>MUGHAL</t>
-  </si>
-  <si>
-    <t>432,500</t>
-  </si>
-  <si>
-    <t>47.71</t>
-  </si>
-  <si>
-    <t>20,634,240</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.12
-</t>
-  </si>
-  <si>
-    <t>29,461,900</t>
-  </si>
-  <si>
-    <t>8,827,660</t>
-  </si>
-  <si>
-    <t>Nishat Mills Limited</t>
-  </si>
-  <si>
-    <t>NML</t>
-  </si>
-  <si>
-    <t>738,474</t>
-  </si>
-  <si>
-    <t>96.61</t>
-  </si>
-  <si>
-    <t>71,341,773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">105.04
-</t>
-  </si>
-  <si>
-    <t>77,569,309</t>
-  </si>
-  <si>
-    <t>6,227,536</t>
-  </si>
-  <si>
-    <t>Oil &amp; Gas Development Company Limited</t>
-  </si>
-  <si>
-    <t>OGDC</t>
-  </si>
-  <si>
-    <t>1,843,855</t>
-  </si>
-  <si>
-    <t>126.24</t>
-  </si>
-  <si>
-    <t>232,760,985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">104.94
-</t>
-  </si>
-  <si>
-    <t>193,494,144</t>
-  </si>
-  <si>
-    <t>(39,266,841)</t>
-  </si>
-  <si>
-    <t>Pak Suzuki Motor Company</t>
-  </si>
-  <si>
-    <t>PSMC</t>
-  </si>
-  <si>
-    <t>103,600</t>
-  </si>
-  <si>
-    <t>191.54</t>
-  </si>
-  <si>
-    <t>19,843,137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">224.11
-</t>
-  </si>
-  <si>
-    <t>23,217,796</t>
-  </si>
-  <si>
-    <t>3,374,659</t>
+    <t>242,929</t>
+  </si>
+  <si>
+    <t>55.44</t>
+  </si>
+  <si>
+    <t>13,468,695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.01
+</t>
+  </si>
+  <si>
+    <t>17,007,459</t>
+  </si>
+  <si>
+    <t>3,538,764</t>
+  </si>
+  <si>
+    <t>Synthetic Products Limited</t>
+  </si>
+  <si>
+    <t>SPEL</t>
+  </si>
+  <si>
+    <t>9,889</t>
+  </si>
+  <si>
+    <t>58.67</t>
+  </si>
+  <si>
+    <t>580,169</t>
+  </si>
+  <si>
+    <t>(580,169)</t>
   </si>
   <si>
     <t>Pakistan National Shipping Co.</t>
@@ -967,316 +1035,23 @@
     <t>PNSC</t>
   </si>
   <si>
-    <t>286,500</t>
+    <t>240,000</t>
   </si>
   <si>
     <t>80.97</t>
   </si>
   <si>
-    <t>23,196,890</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90.40
-</t>
-  </si>
-  <si>
-    <t>25,899,600</t>
-  </si>
-  <si>
-    <t>2,702,710</t>
-  </si>
-  <si>
-    <t>Pakistan Oilfields Limited</t>
-  </si>
-  <si>
-    <t>POL</t>
-  </si>
-  <si>
-    <t>240,763</t>
-  </si>
-  <si>
-    <t>408.28</t>
-  </si>
-  <si>
-    <t>98,298,528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">424.10
-</t>
-  </si>
-  <si>
-    <t>102,107,588</t>
-  </si>
-  <si>
-    <t>3,809,060</t>
-  </si>
-  <si>
-    <t>Pakistan Petroleum Limited</t>
-  </si>
-  <si>
-    <t>PPL</t>
-  </si>
-  <si>
-    <t>2,091,714</t>
-  </si>
-  <si>
-    <t>110.36</t>
-  </si>
-  <si>
-    <t>230,834,179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92.88
-</t>
-  </si>
-  <si>
-    <t>194,278,396</t>
-  </si>
-  <si>
-    <t>(36,555,783)</t>
-  </si>
-  <si>
-    <t>Pakistan State Oil</t>
-  </si>
-  <si>
-    <t>PSO</t>
-  </si>
-  <si>
-    <t>640,375</t>
-  </si>
-  <si>
-    <t>178.41</t>
-  </si>
-  <si>
-    <t>114,247,038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">205.62
-</t>
-  </si>
-  <si>
-    <t>131,673,908</t>
-  </si>
-  <si>
-    <t>17,426,869</t>
-  </si>
-  <si>
-    <t>Pioneer Cement</t>
-  </si>
-  <si>
-    <t>PIOC</t>
-  </si>
-  <si>
-    <t>342,000</t>
-  </si>
-  <si>
-    <t>53.64</t>
-  </si>
-  <si>
-    <t>18,343,446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98.23
-</t>
-  </si>
-  <si>
-    <t>33,594,660</t>
-  </si>
-  <si>
-    <t>15,251,214</t>
-  </si>
-  <si>
-    <t>Sui Northern Gas Pipelines Limited</t>
-  </si>
-  <si>
-    <t>SNGP</t>
-  </si>
-  <si>
-    <t>967,607</t>
-  </si>
-  <si>
-    <t>65.06</t>
-  </si>
-  <si>
-    <t>62,948,224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.05
-</t>
-  </si>
-  <si>
-    <t>61,975,228</t>
-  </si>
-  <si>
-    <t>(972,995)</t>
-  </si>
-  <si>
-    <t>Synthetic Products Limited</t>
-  </si>
-  <si>
-    <t>SPEL</t>
-  </si>
-  <si>
-    <t>9,889</t>
-  </si>
-  <si>
-    <t>58.67</t>
-  </si>
-  <si>
-    <t>580,169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.93
-</t>
-  </si>
-  <si>
-    <t>473,980</t>
-  </si>
-  <si>
-    <t>(106,190)</t>
-  </si>
-  <si>
-    <t>Systems Limited</t>
-  </si>
-  <si>
-    <t>SYS</t>
-  </si>
-  <si>
-    <t>395,570</t>
-  </si>
-  <si>
-    <t>120.57</t>
-  </si>
-  <si>
-    <t>47,692,858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">299.48
-</t>
-  </si>
-  <si>
-    <t>118,465,304</t>
-  </si>
-  <si>
-    <t>70,772,446</t>
-  </si>
-  <si>
-    <t>THAL LIMITED</t>
-  </si>
-  <si>
-    <t>THALL</t>
-  </si>
-  <si>
-    <t>95,200</t>
-  </si>
-  <si>
-    <t>328.73</t>
-  </si>
-  <si>
-    <t>31,294,637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">426.01
-</t>
-  </si>
-  <si>
-    <t>40,556,152</t>
-  </si>
-  <si>
-    <t>9,261,515</t>
-  </si>
-  <si>
-    <t>The Organic Meat Company Limited</t>
-  </si>
-  <si>
-    <t>TOMCL</t>
-  </si>
-  <si>
-    <t>52,524</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>1,050,480</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.38
-</t>
-  </si>
-  <si>
-    <t>1,648,203</t>
-  </si>
-  <si>
-    <t>597,723</t>
-  </si>
-  <si>
-    <t>The Searle Company</t>
-  </si>
-  <si>
-    <t>SEARL</t>
-  </si>
-  <si>
-    <t>279,771</t>
-  </si>
-  <si>
-    <t>230.91</t>
-  </si>
-  <si>
-    <t>64,601,698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">271.38
-</t>
-  </si>
-  <si>
-    <t>75,924,254</t>
-  </si>
-  <si>
-    <t>11,322,556</t>
-  </si>
-  <si>
-    <t>Unity Foods Limited</t>
-  </si>
-  <si>
-    <t>UNITY</t>
-  </si>
-  <si>
-    <t>1,211,500</t>
-  </si>
-  <si>
-    <t>10.67</t>
-  </si>
-  <si>
-    <t>12,924,125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.04
-</t>
-  </si>
-  <si>
-    <t>21,855,460</t>
-  </si>
-  <si>
-    <t>8,931,335</t>
-  </si>
-  <si>
-    <t>Unity Foods Limited(R2)</t>
-  </si>
-  <si>
-    <t>UNITYR2</t>
-  </si>
-  <si>
-    <t>1,002,067</t>
-  </si>
-  <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>1,402,894</t>
-  </si>
-  <si>
-    <t>(1,402,894)</t>
+    <t>19,431,950</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.50
+</t>
+  </si>
+  <si>
+    <t>21,240,000</t>
+  </si>
+  <si>
+    <t>1,808,050</t>
   </si>
 </sst>
 </file>
@@ -1340,7 +1115,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2276,13 +2051,13 @@
         <v>253</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>166</v>
+        <v>254</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>167</v>
+        <v>255</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33">
@@ -2290,28 +2065,28 @@
         <v>32</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="34">
@@ -2319,25 +2094,25 @@
         <v>33</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>268</v>
+        <v>38</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>269</v>
+        <v>39</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>270</v>
@@ -2537,13 +2312,13 @@
         <v>323</v>
       </c>
       <c r="G41" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I41" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="42">
@@ -2551,28 +2326,28 @@
         <v>41</v>
       </c>
       <c r="B42" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="E42" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="H42" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="I42" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="43">
@@ -2580,28 +2355,28 @@
         <v>42</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>335</v>
+        <v>9</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>336</v>
+        <v>10</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>337</v>
+        <v>11</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>338</v>
+        <v>12</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>339</v>
+        <v>13</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>340</v>
+        <v>14</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>341</v>
+        <v>15</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>342</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44">
@@ -2609,28 +2384,28 @@
         <v>43</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>343</v>
+        <v>17</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>344</v>
+        <v>18</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>345</v>
+        <v>19</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>346</v>
+        <v>20</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>347</v>
+        <v>21</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>348</v>
+        <v>22</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>349</v>
+        <v>23</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>350</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45">
@@ -2638,28 +2413,28 @@
         <v>44</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>351</v>
+        <v>25</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>352</v>
+        <v>26</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>353</v>
+        <v>27</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>354</v>
+        <v>28</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>355</v>
+        <v>29</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>356</v>
+        <v>30</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>357</v>
+        <v>31</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>358</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46">
@@ -2667,28 +2442,28 @@
         <v>45</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>359</v>
+        <v>33</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>360</v>
+        <v>34</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>361</v>
+        <v>35</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>362</v>
+        <v>36</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>363</v>
+        <v>37</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>364</v>
+        <v>38</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>365</v>
+        <v>39</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>366</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47">
@@ -2696,28 +2471,28 @@
         <v>46</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>367</v>
+        <v>41</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>368</v>
+        <v>42</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>369</v>
+        <v>43</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>370</v>
+        <v>44</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>371</v>
+        <v>45</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>372</v>
+        <v>46</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>373</v>
+        <v>47</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>374</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48">
@@ -2725,28 +2500,28 @@
         <v>47</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>375</v>
+        <v>49</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>376</v>
+        <v>50</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>377</v>
+        <v>51</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>378</v>
+        <v>52</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>379</v>
+        <v>53</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>380</v>
+        <v>54</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>381</v>
+        <v>55</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>382</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49">
@@ -2754,28 +2529,28 @@
         <v>48</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>383</v>
+        <v>57</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>384</v>
+        <v>58</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>385</v>
+        <v>59</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>386</v>
+        <v>60</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>387</v>
+        <v>61</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>388</v>
+        <v>62</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>389</v>
+        <v>63</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>390</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50">
@@ -2783,28 +2558,28 @@
         <v>49</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>391</v>
+        <v>65</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>392</v>
+        <v>66</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>393</v>
+        <v>67</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>394</v>
+        <v>68</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>395</v>
+        <v>69</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>396</v>
+        <v>70</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>397</v>
+        <v>71</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>398</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51">
@@ -2812,28 +2587,956 @@
         <v>50</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>399</v>
+        <v>73</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>400</v>
+        <v>74</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>401</v>
+        <v>75</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>402</v>
+        <v>76</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>403</v>
+        <v>77</v>
       </c>
       <c r="G51" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="H53" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="I51" s="1" t="s">
-        <v>404</v>
+      <c r="I53" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>332</v>
       </c>
     </row>
   </sheetData>
